--- a/MemoriaPlantillaGestiónFinal/Diagrama_gantt_backend.xlsx
+++ b/MemoriaPlantillaGestiónFinal/Diagrama_gantt_backend.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apied\Desktop\Cosillas\Uni\3erCurso\2doCuatri\ProyectoSoftware\GitHub\Memoria\MemoriaPlantillaGestiónV1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apied\Desktop\Cosillas\Uni\3erCurso\2doCuatri\ProyectoSoftware\GitHub\Memoria\MemoriaPlantillaGestiónFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4878CCF-E0AD-47DA-90B8-0EEC7272B54B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0BCD6B-D77A-4D40-BB8F-113405F99B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Nombre Actividad</t>
   </si>
@@ -66,9 +65,6 @@
     <t>Creación canción</t>
   </si>
   <si>
-    <t>Creación álbum</t>
-  </si>
-  <si>
     <t>Pruebas 1a iteración</t>
   </si>
   <si>
@@ -79,9 +75,6 @@
   </si>
   <si>
     <t>Investigar almacenamiento y reproducción de canciones</t>
-  </si>
-  <si>
-    <t>Víctor y A.Piedrafita</t>
   </si>
   <si>
     <t>A.Ruiz</t>
@@ -96,34 +89,10 @@
     <t>Todos</t>
   </si>
   <si>
-    <t>Crear cola de reproducción</t>
-  </si>
-  <si>
     <t>A.Ruiz y A.Piedrafita</t>
   </si>
   <si>
     <t>Acuerdo con front-end y conexiones (estándares)</t>
-  </si>
-  <si>
-    <t>Búsqueda de canciones</t>
-  </si>
-  <si>
-    <t>Búsqueda de podcasts</t>
-  </si>
-  <si>
-    <t>Búsqueda de álbumes</t>
-  </si>
-  <si>
-    <t>Búsqueda de artistas</t>
-  </si>
-  <si>
-    <t>Crear playlists</t>
-  </si>
-  <si>
-    <t>Búsqueda de playlists</t>
-  </si>
-  <si>
-    <t>Funcionalidad seguimiento (canciones, podcasts, playlists…)</t>
   </si>
   <si>
     <t>Pruebas Aplicación</t>
@@ -132,16 +101,28 @@
     <t>Funionalidades de red social (seguir amigos/artistas…)</t>
   </si>
   <si>
-    <t>Creación banners</t>
-  </si>
-  <si>
-    <t>Creación ecualizador</t>
-  </si>
-  <si>
     <t>Víctor y A.Ruiz</t>
   </si>
   <si>
-    <t>A.Piedrafita y A.Ruiz</t>
+    <t>Recuperación (corrección errores + pruebas)</t>
+  </si>
+  <si>
+    <t>Documentación red social (doc relaciones jpa)</t>
+  </si>
+  <si>
+    <t>Creación playlist</t>
+  </si>
+  <si>
+    <t>Solución errores red social (recursividad infinita) + generalizar red social</t>
+  </si>
+  <si>
+    <t>Creación álbumes</t>
+  </si>
+  <si>
+    <t>Creación Cola de Reproducción</t>
+  </si>
+  <si>
+    <t>Favoritos (Canciones, Podcasts, Playlists, Álbumes)</t>
   </si>
 </sst>
 </file>
@@ -375,9 +356,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$26</c:f>
+              <c:f>Sheet1!$B$3:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Creación de "Cliente"</c:v>
                 </c:pt>
@@ -403,48 +384,36 @@
                   <c:v>Creación canción</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Creación álbum</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Crear cola de reproducción</c:v>
+                  <c:v>Pruebas 1a iteración</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Recuperación (corrección errores + pruebas)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Documentación red social (doc relaciones jpa)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Funionalidades de red social (seguir amigos/artistas…)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Solución errores red social (recursividad infinita) + generalizar red social</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Favoritos (Canciones, Podcasts, Playlists, Álbumes)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Creación playlist</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Reproducción de canciones (+ pruebas)</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Pruebas 1a iteración</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Búsqueda de canciones</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Búsqueda de podcasts</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Búsqueda de álbumes</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Búsqueda de artistas</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>Crear playlists</c:v>
+                  <c:v>Creación álbumes</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Búsqueda de playlists</c:v>
+                  <c:v>Creación Cola de Reproducción</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Funcionalidad seguimiento (canciones, podcasts, playlists…)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Funionalidades de red social (seguir amigos/artistas…)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Creación banners</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Creación ecualizador</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>Pruebas Aplicación</c:v>
                 </c:pt>
               </c:strCache>
@@ -452,15 +421,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$26</c:f>
+              <c:f>Sheet1!$C$3:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>[$-C0A]dd\-mmm</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43909</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43905</c:v>
@@ -469,61 +438,49 @@
                   <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43912</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43915</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="9">
                   <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43922</c:v>
+                  <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43932</c:v>
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43955</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43937</c:v>
+                  <c:v>43959</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43945</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43937</c:v>
+                  <c:v>43966</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43937</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43945</c:v>
+                  <c:v>43969</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43950</c:v>
+                  <c:v>43971</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43953</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43961</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43961</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43968</c:v>
+                  <c:v>43976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,6 +902,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1007,6 +965,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1091,6 +1050,7 @@
                       </a:avLst>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1153,6 +1113,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1215,6 +1176,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1277,6 +1239,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1339,6 +1302,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1401,6 +1365,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000010-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1485,6 +1450,7 @@
                       </a:avLst>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1570,6 +1536,7 @@
                       </a:avLst>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000028-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1654,6 +1621,7 @@
                       </a:avLst>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1738,6 +1706,7 @@
                       </a:avLst>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1800,6 +1769,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1862,6 +1832,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001A-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1924,6 +1895,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001C-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -1986,6 +1958,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000001E-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -2048,6 +2021,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000020-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -2119,6 +2093,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000022-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -2181,6 +2156,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000024-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -2243,6 +2219,7 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000026-3295-4A59-AF48-ABE44C8883F5}"/>
@@ -2462,9 +2439,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$3:$B$26</c:f>
+              <c:f>Sheet1!$B$3:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="24"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>Creación de "Cliente"</c:v>
                 </c:pt>
@@ -2490,48 +2467,36 @@
                   <c:v>Creación canción</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Creación álbum</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Crear cola de reproducción</c:v>
+                  <c:v>Pruebas 1a iteración</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>Recuperación (corrección errores + pruebas)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Documentación red social (doc relaciones jpa)</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Funionalidades de red social (seguir amigos/artistas…)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Solución errores red social (recursividad infinita) + generalizar red social</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Favoritos (Canciones, Podcasts, Playlists, Álbumes)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Creación playlist</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Reproducción de canciones (+ pruebas)</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>Pruebas 1a iteración</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Búsqueda de canciones</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Búsqueda de podcasts</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Búsqueda de álbumes</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Búsqueda de artistas</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>Crear playlists</c:v>
+                  <c:v>Creación álbumes</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Búsqueda de playlists</c:v>
+                  <c:v>Creación Cola de Reproducción</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Funcionalidad seguimiento (canciones, podcasts, playlists…)</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Funionalidades de red social (seguir amigos/artistas…)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Creación banners</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Creación ecualizador</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>Pruebas Aplicación</c:v>
                 </c:pt>
               </c:strCache>
@@ -2539,18 +2504,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$26</c:f>
+              <c:f>Sheet1!$D$3:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -2559,7 +2524,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
@@ -2568,49 +2533,37 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2637,12 +2590,12 @@
       <c:catAx>
         <c:axId val="10445416"/>
         <c:scaling>
-          <c:orientation val="maxMin"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2683,7 +2636,7 @@
           <c:min val="43904"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="t"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9360">
@@ -2694,20 +2647,9 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9360">
-              <a:solidFill>
-                <a:srgbClr val="E7E6E6">
-                  <a:alpha val="96000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
+        <c:minorGridlines/>
         <c:numFmt formatCode="d\-mmm" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2770,13 +2712,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>86805</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>18885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>695235</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399960</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66405</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2806,13 +2748,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>142920</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>771225</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2849,13 +2791,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1423146</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>531196</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>75653</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2965,15 +2907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2988,7 +2930,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="7715250"/>
+          <a:off x="1038225" y="7600950"/>
           <a:ext cx="9296400" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3312,16 +3254,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -3357,14 +3299,14 @@
         <v>43905</v>
       </c>
       <c r="D3" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" ref="E3:E26" si="0">C3+D3</f>
-        <v>43909</v>
+        <f t="shared" ref="E3:E22" si="0">C3+D3</f>
+        <v>43912</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -3372,17 +3314,17 @@
         <v>6</v>
       </c>
       <c r="C4" s="4">
-        <v>43909</v>
+        <v>43913</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>43911</v>
+        <v>43920</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K4" s="2"/>
     </row>
@@ -3394,19 +3336,19 @@
         <v>43905</v>
       </c>
       <c r="D5" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>43911</v>
+        <v>43920</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
         <v>43911</v>
@@ -3419,25 +3361,25 @@
         <v>43920</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
-        <v>43912</v>
+        <v>43921</v>
       </c>
       <c r="D7" s="3">
         <v>3</v>
       </c>
       <c r="E7" s="4">
         <f>C7+D7</f>
-        <v>43915</v>
+        <v>43924</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -3448,14 +3390,14 @@
         <v>43912</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>43915</v>
+        <v>43922</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -3463,17 +3405,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="4">
-        <v>43915</v>
+        <v>43917</v>
       </c>
       <c r="D9" s="3">
         <v>3</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="0"/>
-        <v>43918</v>
+        <v>43920</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -3491,7 +3433,7 @@
         <v>43922</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -3499,114 +3441,114 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>43918</v>
+        <v>43922</v>
       </c>
       <c r="D11" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="0"/>
-        <v>43922</v>
+        <v>43937</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
-        <v>43922</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="0"/>
-        <v>43926</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4">
-        <v>43922</v>
-      </c>
-      <c r="D13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>43932</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>20</v>
+      <c r="B13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43937</v>
+      </c>
+      <c r="D13" s="13">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12">
+        <f>C13+D13</f>
+        <v>43944</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4">
-        <v>43932</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="0"/>
-        <v>43936</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
+      <c r="B14" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43945</v>
+      </c>
+      <c r="D14" s="13">
+        <v>10</v>
+      </c>
+      <c r="E14" s="12">
+        <f>C14+D14</f>
+        <v>43955</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="10"/>
+      <c r="B15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43955</v>
+      </c>
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12">
+        <f>C15+D15</f>
+        <v>43958</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>24</v>
+      <c r="B16" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="12">
-        <v>43937</v>
+        <v>43959</v>
       </c>
       <c r="D16" s="13">
         <v>7</v>
       </c>
       <c r="E16" s="12">
-        <f t="shared" si="0"/>
-        <v>43944</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>18</v>
+        <f>C16+D16</f>
+        <v>43966</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>25</v>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="12">
-        <v>43945</v>
+        <v>43966</v>
       </c>
       <c r="D17" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" s="12">
-        <f t="shared" si="0"/>
-        <v>43949</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>18</v>
+        <f>C17+D17</f>
+        <v>43973</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -3614,35 +3556,35 @@
         <v>26</v>
       </c>
       <c r="C18" s="12">
-        <v>43937</v>
+        <v>43966</v>
       </c>
       <c r="D18" s="13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="0"/>
-        <v>43944</v>
+        <f>C18+D18</f>
+        <v>43969</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>27</v>
+      <c r="B19" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="12">
         <v>43937</v>
       </c>
       <c r="D19" s="13">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E19" s="12">
-        <f t="shared" si="0"/>
-        <v>43944</v>
+        <f>C19+D19</f>
+        <v>43957</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -3650,17 +3592,17 @@
         <v>28</v>
       </c>
       <c r="C20" s="12">
-        <v>43945</v>
+        <v>43969</v>
       </c>
       <c r="D20" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" s="12">
         <f t="shared" si="0"/>
-        <v>43952</v>
+        <v>43971</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -3668,107 +3610,35 @@
         <v>29</v>
       </c>
       <c r="C21" s="12">
-        <v>43950</v>
+        <v>43971</v>
       </c>
       <c r="D21" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" s="12">
         <f t="shared" si="0"/>
-        <v>43953</v>
+        <v>43976</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>30</v>
+      <c r="B22" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="12">
-        <v>43953</v>
+        <v>43976</v>
       </c>
       <c r="D22" s="13">
         <v>7</v>
       </c>
       <c r="E22" s="12">
         <f t="shared" si="0"/>
-        <v>43960</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="12">
-        <v>43953</v>
-      </c>
-      <c r="D23" s="13">
-        <v>7</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>43960</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="12">
-        <v>43961</v>
-      </c>
-      <c r="D24" s="13">
-        <v>7</v>
-      </c>
-      <c r="E24" s="12">
-        <f t="shared" si="0"/>
-        <v>43968</v>
-      </c>
-      <c r="F24" s="13" t="s">
+        <v>43983</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="12">
-        <v>43961</v>
-      </c>
-      <c r="D25" s="13">
-        <v>7</v>
-      </c>
-      <c r="E25" s="12">
-        <f t="shared" si="0"/>
-        <v>43968</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="12">
-        <v>43968</v>
-      </c>
-      <c r="D26" s="13">
-        <v>15</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>43983</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
